--- a/Test/output.xlsx
+++ b/Test/output.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1" sheetId="1" r:id="Rce2103733ded41aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1" sheetId="1" r:id="Rfb5e064318b04a75"/>
   </x:sheets>
 </x:workbook>
 </file>
